--- a/sources/corpora_icono/MGE/vocabulaire_indexation.xlsx
+++ b/sources/corpora_icono/MGE/vocabulaire_indexation.xlsx
@@ -1,25 +1,41 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rebecca\Documents\GitHub\SHERLOCK\sources\corpora_icono\MGE\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F69F35D2-65E1-48B7-8430-AB1B40C02136}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Feuille 1" sheetId="1" r:id="rId4"/>
+    <sheet name="Feuille 1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author/>
   </authors>
   <commentList>
-    <comment authorId="0" ref="D44">
+    <comment ref="D44" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
-        <t xml:space="preserve">En faire une sous-catégorie de "plans et vues"?
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+          </rPr>
+          <t>En faire une sous-catégorie de "plans et vues"?
 	-Rebecca Bristow</t>
+        </r>
       </text>
     </comment>
   </commentList>
@@ -284,9 +300,6 @@
     <t>Mausolées</t>
   </si>
   <si>
-    <t>Médailles</t>
-  </si>
-  <si>
     <t>Météores</t>
   </si>
   <si>
@@ -351,37 +364,46 @@
   </si>
   <si>
     <t>Relevés décoratifs</t>
+  </si>
+  <si>
+    <t>Médaille</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="6">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
       <b/>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
-    <font/>
     <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
     <font>
       <u/>
+      <sz val="10"/>
       <color rgb="FF0000FF"/>
+      <name val="Arial"/>
     </font>
   </fonts>
   <fills count="3">
@@ -389,7 +411,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -399,65 +421,68 @@
     </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="13">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -647,31 +672,34 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:G102"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1.0" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection activeCell="B3" sqref="B3" pane="bottomLeft"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A59" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D80" sqref="D80"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="16.14"/>
-    <col customWidth="1" min="2" max="2" width="20.57"/>
-    <col customWidth="1" min="3" max="3" width="26.57"/>
-    <col customWidth="1" min="4" max="4" width="36.43"/>
-    <col customWidth="1" min="5" max="5" width="31.86"/>
-    <col customWidth="1" min="6" max="6" width="37.14"/>
+    <col min="1" max="1" width="16.109375" customWidth="1"/>
+    <col min="2" max="2" width="20.5546875" customWidth="1"/>
+    <col min="3" max="3" width="26.5546875" customWidth="1"/>
+    <col min="4" max="4" width="36.44140625" customWidth="1"/>
+    <col min="5" max="5" width="31.88671875" customWidth="1"/>
+    <col min="6" max="6" width="37.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -694,7 +722,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2"/>
       <c r="B2" s="3" t="s">
         <v>6</v>
@@ -706,7 +734,7 @@
       <c r="E2" s="5"/>
       <c r="F2" s="5"/>
     </row>
-    <row r="3">
+    <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2"/>
       <c r="B3" s="3" t="s">
         <v>6</v>
@@ -720,7 +748,7 @@
       <c r="E3" s="5"/>
       <c r="F3" s="5"/>
     </row>
-    <row r="4">
+    <row r="4" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2"/>
       <c r="B4" s="3" t="s">
         <v>6</v>
@@ -734,7 +762,7 @@
       <c r="E4" s="5"/>
       <c r="F4" s="5"/>
     </row>
-    <row r="5">
+    <row r="5" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="2"/>
       <c r="B5" s="3" t="s">
         <v>6</v>
@@ -746,7 +774,7 @@
       <c r="E5" s="5"/>
       <c r="F5" s="5"/>
     </row>
-    <row r="6">
+    <row r="6" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="2"/>
       <c r="B6" s="3" t="s">
         <v>6</v>
@@ -760,7 +788,7 @@
       <c r="E6" s="5"/>
       <c r="F6" s="5"/>
     </row>
-    <row r="7">
+    <row r="7" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="2"/>
       <c r="B7" s="3" t="s">
         <v>6</v>
@@ -774,7 +802,7 @@
       <c r="E7" s="5"/>
       <c r="F7" s="5"/>
     </row>
-    <row r="8">
+    <row r="8" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="2"/>
       <c r="B8" s="3" t="s">
         <v>6</v>
@@ -788,7 +816,7 @@
       <c r="E8" s="5"/>
       <c r="F8" s="5"/>
     </row>
-    <row r="9">
+    <row r="9" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="2"/>
       <c r="B9" s="3" t="s">
         <v>6</v>
@@ -800,7 +828,7 @@
       <c r="E9" s="5"/>
       <c r="F9" s="5"/>
     </row>
-    <row r="10">
+    <row r="10" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="2"/>
       <c r="B10" s="3" t="s">
         <v>6</v>
@@ -814,7 +842,7 @@
       <c r="E10" s="5"/>
       <c r="F10" s="5"/>
     </row>
-    <row r="11">
+    <row r="11" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="2"/>
       <c r="B11" s="3" t="s">
         <v>6</v>
@@ -828,7 +856,7 @@
       <c r="E11" s="5"/>
       <c r="F11" s="5"/>
     </row>
-    <row r="12">
+    <row r="12" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="2"/>
       <c r="B12" s="3" t="s">
         <v>6</v>
@@ -842,7 +870,7 @@
       <c r="E12" s="6"/>
       <c r="F12" s="6"/>
     </row>
-    <row r="13">
+    <row r="13" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="2"/>
       <c r="B13" s="3" t="s">
         <v>6</v>
@@ -856,7 +884,7 @@
       <c r="E13" s="6"/>
       <c r="F13" s="6"/>
     </row>
-    <row r="14">
+    <row r="14" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="2"/>
       <c r="B14" s="3" t="s">
         <v>6</v>
@@ -868,7 +896,7 @@
       <c r="E14" s="6"/>
       <c r="F14" s="6"/>
     </row>
-    <row r="15">
+    <row r="15" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="7"/>
       <c r="B15" s="3" t="s">
         <v>6</v>
@@ -882,7 +910,7 @@
       <c r="E15" s="7"/>
       <c r="F15" s="7"/>
     </row>
-    <row r="16">
+    <row r="16" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="7"/>
       <c r="B16" s="3" t="s">
         <v>6</v>
@@ -896,7 +924,7 @@
       <c r="E16" s="7"/>
       <c r="F16" s="7"/>
     </row>
-    <row r="17">
+    <row r="17" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="7"/>
       <c r="B17" s="3" t="s">
         <v>6</v>
@@ -910,7 +938,7 @@
       <c r="E17" s="7"/>
       <c r="F17" s="7"/>
     </row>
-    <row r="18">
+    <row r="18" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="7"/>
       <c r="B18" s="3" t="s">
         <v>6</v>
@@ -924,7 +952,7 @@
       <c r="E18" s="7"/>
       <c r="F18" s="7"/>
     </row>
-    <row r="19">
+    <row r="19" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="7"/>
       <c r="B19" s="3" t="s">
         <v>6</v>
@@ -938,7 +966,7 @@
       <c r="E19" s="7"/>
       <c r="F19" s="7"/>
     </row>
-    <row r="20">
+    <row r="20" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="7"/>
       <c r="B20" s="3" t="s">
         <v>6</v>
@@ -952,7 +980,7 @@
       <c r="E20" s="7"/>
       <c r="F20" s="7"/>
     </row>
-    <row r="21">
+    <row r="21" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="7"/>
       <c r="B21" s="3" t="s">
         <v>6</v>
@@ -964,7 +992,7 @@
       <c r="E21" s="7"/>
       <c r="F21" s="7"/>
     </row>
-    <row r="22">
+    <row r="22" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="7"/>
       <c r="B22" s="3" t="s">
         <v>6</v>
@@ -978,7 +1006,7 @@
       <c r="E22" s="7"/>
       <c r="F22" s="7"/>
     </row>
-    <row r="23">
+    <row r="23" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="7"/>
       <c r="B23" s="3" t="s">
         <v>6</v>
@@ -990,7 +1018,7 @@
       <c r="E23" s="7"/>
       <c r="F23" s="7"/>
     </row>
-    <row r="24">
+    <row r="24" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="7"/>
       <c r="B24" s="3" t="s">
         <v>6</v>
@@ -1004,7 +1032,7 @@
       <c r="E24" s="7"/>
       <c r="F24" s="7"/>
     </row>
-    <row r="25">
+    <row r="25" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="7"/>
       <c r="B25" s="3" t="s">
         <v>6</v>
@@ -1018,7 +1046,7 @@
       </c>
       <c r="F25" s="7"/>
     </row>
-    <row r="26">
+    <row r="26" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="7"/>
       <c r="B26" s="3" t="s">
         <v>6</v>
@@ -1032,7 +1060,7 @@
       </c>
       <c r="F26" s="7"/>
     </row>
-    <row r="27">
+    <row r="27" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="7"/>
       <c r="B27" s="3" t="s">
         <v>6</v>
@@ -1046,7 +1074,7 @@
       </c>
       <c r="F27" s="7"/>
     </row>
-    <row r="28">
+    <row r="28" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="7"/>
       <c r="B28" s="3" t="s">
         <v>6</v>
@@ -1060,7 +1088,7 @@
       </c>
       <c r="F28" s="7"/>
     </row>
-    <row r="29">
+    <row r="29" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="7"/>
       <c r="B29" s="3" t="s">
         <v>6</v>
@@ -1074,7 +1102,7 @@
       </c>
       <c r="F29" s="7"/>
     </row>
-    <row r="30">
+    <row r="30" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A30" s="7"/>
       <c r="B30" s="3" t="s">
         <v>6</v>
@@ -1088,7 +1116,7 @@
       </c>
       <c r="F30" s="7"/>
     </row>
-    <row r="31">
+    <row r="31" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A31" s="7"/>
       <c r="B31" s="3" t="s">
         <v>6</v>
@@ -1102,7 +1130,7 @@
       </c>
       <c r="F31" s="7"/>
     </row>
-    <row r="32">
+    <row r="32" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A32" s="7"/>
       <c r="B32" s="3" t="s">
         <v>6</v>
@@ -1116,7 +1144,7 @@
       </c>
       <c r="F32" s="7"/>
     </row>
-    <row r="33">
+    <row r="33" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A33" s="7"/>
       <c r="B33" s="3" t="s">
         <v>6</v>
@@ -1130,7 +1158,7 @@
       </c>
       <c r="F33" s="7"/>
     </row>
-    <row r="34">
+    <row r="34" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A34" s="7"/>
       <c r="B34" s="3" t="s">
         <v>6</v>
@@ -1144,7 +1172,7 @@
       </c>
       <c r="F34" s="7"/>
     </row>
-    <row r="35">
+    <row r="35" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A35" s="7"/>
       <c r="B35" s="3" t="s">
         <v>6</v>
@@ -1158,7 +1186,7 @@
       </c>
       <c r="F35" s="7"/>
     </row>
-    <row r="36">
+    <row r="36" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A36" s="7"/>
       <c r="B36" s="3" t="s">
         <v>6</v>
@@ -1172,7 +1200,7 @@
       </c>
       <c r="F36" s="7"/>
     </row>
-    <row r="37">
+    <row r="37" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A37" s="7"/>
       <c r="B37" s="3" t="s">
         <v>6</v>
@@ -1186,7 +1214,7 @@
       </c>
       <c r="F37" s="7"/>
     </row>
-    <row r="38">
+    <row r="38" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A38" s="7"/>
       <c r="B38" s="3" t="s">
         <v>6</v>
@@ -1198,7 +1226,7 @@
       <c r="E38" s="7"/>
       <c r="F38" s="7"/>
     </row>
-    <row r="39">
+    <row r="39" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A39" s="7"/>
       <c r="B39" s="3" t="s">
         <v>6</v>
@@ -1210,7 +1238,7 @@
       <c r="E39" s="7"/>
       <c r="F39" s="7"/>
     </row>
-    <row r="40">
+    <row r="40" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A40" s="7"/>
       <c r="B40" s="3" t="s">
         <v>6</v>
@@ -1224,7 +1252,7 @@
       <c r="E40" s="7"/>
       <c r="F40" s="7"/>
     </row>
-    <row r="41">
+    <row r="41" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A41" s="7"/>
       <c r="B41" s="3" t="s">
         <v>6</v>
@@ -1238,7 +1266,7 @@
       <c r="E41" s="7"/>
       <c r="F41" s="7"/>
     </row>
-    <row r="42">
+    <row r="42" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A42" s="7"/>
       <c r="B42" s="3" t="s">
         <v>6</v>
@@ -1252,7 +1280,7 @@
       <c r="E42" s="7"/>
       <c r="F42" s="7"/>
     </row>
-    <row r="43">
+    <row r="43" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A43" s="7"/>
       <c r="B43" s="3" t="s">
         <v>6</v>
@@ -1266,7 +1294,7 @@
       <c r="E43" s="7"/>
       <c r="F43" s="7"/>
     </row>
-    <row r="44">
+    <row r="44" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A44" s="7"/>
       <c r="B44" s="3" t="s">
         <v>6</v>
@@ -1280,7 +1308,7 @@
       <c r="E44" s="7"/>
       <c r="F44" s="7"/>
     </row>
-    <row r="45">
+    <row r="45" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A45" s="7"/>
       <c r="B45" s="3" t="s">
         <v>6</v>
@@ -1292,7 +1320,7 @@
       <c r="E45" s="7"/>
       <c r="F45" s="7"/>
     </row>
-    <row r="46">
+    <row r="46" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A46" s="7"/>
       <c r="B46" s="3" t="s">
         <v>6</v>
@@ -1304,7 +1332,7 @@
       <c r="E46" s="7"/>
       <c r="F46" s="7"/>
     </row>
-    <row r="47">
+    <row r="47" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A47" s="7"/>
       <c r="B47" s="3" t="s">
         <v>6</v>
@@ -1318,7 +1346,7 @@
       <c r="E47" s="7"/>
       <c r="F47" s="7"/>
     </row>
-    <row r="48">
+    <row r="48" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A48" s="7"/>
       <c r="B48" s="3" t="s">
         <v>6</v>
@@ -1332,7 +1360,7 @@
       <c r="E48" s="7"/>
       <c r="F48" s="7"/>
     </row>
-    <row r="49">
+    <row r="49" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A49" s="7"/>
       <c r="B49" s="3" t="s">
         <v>6</v>
@@ -1346,7 +1374,7 @@
       <c r="E49" s="7"/>
       <c r="F49" s="7"/>
     </row>
-    <row r="50">
+    <row r="50" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B50" s="10" t="s">
         <v>54</v>
       </c>
@@ -1354,7 +1382,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="51">
+    <row r="51" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B51" s="10" t="s">
         <v>54</v>
       </c>
@@ -1362,7 +1390,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="52">
+    <row r="52" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B52" s="10" t="s">
         <v>54</v>
       </c>
@@ -1370,7 +1398,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="53">
+    <row r="53" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B53" s="10" t="s">
         <v>54</v>
       </c>
@@ -1378,7 +1406,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="54">
+    <row r="54" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B54" s="10" t="s">
         <v>54</v>
       </c>
@@ -1386,7 +1414,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="55">
+    <row r="55" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B55" s="10" t="s">
         <v>54</v>
       </c>
@@ -1394,7 +1422,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="56">
+    <row r="56" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B56" s="10" t="s">
         <v>54</v>
       </c>
@@ -1402,7 +1430,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="57">
+    <row r="57" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B57" s="10" t="s">
         <v>54</v>
       </c>
@@ -1410,7 +1438,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="58">
+    <row r="58" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B58" s="10" t="s">
         <v>54</v>
       </c>
@@ -1418,7 +1446,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="59">
+    <row r="59" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B59" s="10" t="s">
         <v>54</v>
       </c>
@@ -1426,7 +1454,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="60">
+    <row r="60" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B60" s="10" t="s">
         <v>54</v>
       </c>
@@ -1434,7 +1462,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="61">
+    <row r="61" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B61" s="10" t="s">
         <v>54</v>
       </c>
@@ -1442,7 +1470,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="62">
+    <row r="62" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B62" s="10" t="s">
         <v>54</v>
       </c>
@@ -1450,7 +1478,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="63">
+    <row r="63" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B63" s="10" t="s">
         <v>54</v>
       </c>
@@ -1458,7 +1486,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="64">
+    <row r="64" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B64" s="10" t="s">
         <v>54</v>
       </c>
@@ -1466,7 +1494,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="65">
+    <row r="65" spans="2:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B65" s="10" t="s">
         <v>54</v>
       </c>
@@ -1474,7 +1502,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="66">
+    <row r="66" spans="2:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B66" s="10" t="s">
         <v>54</v>
       </c>
@@ -1482,7 +1510,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="67">
+    <row r="67" spans="2:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B67" s="10" t="s">
         <v>54</v>
       </c>
@@ -1490,7 +1518,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="68">
+    <row r="68" spans="2:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B68" s="10" t="s">
         <v>54</v>
       </c>
@@ -1498,7 +1526,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="69">
+    <row r="69" spans="2:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B69" s="10" t="s">
         <v>54</v>
       </c>
@@ -1506,7 +1534,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="70">
+    <row r="70" spans="2:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B70" s="10" t="s">
         <v>54</v>
       </c>
@@ -1514,7 +1542,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="71">
+    <row r="71" spans="2:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B71" s="10" t="s">
         <v>54</v>
       </c>
@@ -1522,7 +1550,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="72">
+    <row r="72" spans="2:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B72" s="10" t="s">
         <v>54</v>
       </c>
@@ -1530,7 +1558,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="73">
+    <row r="73" spans="2:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B73" s="10" t="s">
         <v>54</v>
       </c>
@@ -1538,7 +1566,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="74">
+    <row r="74" spans="2:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B74" s="10" t="s">
         <v>54</v>
       </c>
@@ -1546,7 +1574,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="75">
+    <row r="75" spans="2:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B75" s="10" t="s">
         <v>54</v>
       </c>
@@ -1554,7 +1582,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="76">
+    <row r="76" spans="2:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B76" s="10" t="s">
         <v>54</v>
       </c>
@@ -1562,7 +1590,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="77">
+    <row r="77" spans="2:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B77" s="10" t="s">
         <v>54</v>
       </c>
@@ -1570,7 +1598,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="78">
+    <row r="78" spans="2:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B78" s="10" t="s">
         <v>54</v>
       </c>
@@ -1578,7 +1606,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="79">
+    <row r="79" spans="2:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B79" s="10" t="s">
         <v>54</v>
       </c>
@@ -1586,39 +1614,39 @@
         <v>84</v>
       </c>
     </row>
-    <row r="80">
+    <row r="80" spans="2:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B80" s="10" t="s">
         <v>54</v>
       </c>
       <c r="D80" s="10" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="81" spans="2:6" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B81" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="D81" s="10" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="81">
-      <c r="B81" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="D81" s="10" t="s">
+    <row r="82" spans="2:6" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B82" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="D82" s="10" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="82">
-      <c r="B82" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="D82" s="10" t="s">
+    <row r="83" spans="2:6" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B83" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="D83" s="10" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="83">
-      <c r="B83" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="D83" s="10" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="84">
+    <row r="84" spans="2:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B84" s="10" t="s">
         <v>54</v>
       </c>
@@ -1626,158 +1654,158 @@
         <v>53</v>
       </c>
     </row>
-    <row r="85">
+    <row r="85" spans="2:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B85" s="10" t="s">
         <v>54</v>
       </c>
       <c r="D85" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="F85" s="11" t="s">
         <v>89</v>
       </c>
-      <c r="F85" s="11" t="s">
+    </row>
+    <row r="86" spans="2:6" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B86" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="D86" s="10" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="86">
-      <c r="B86" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="D86" s="10" t="s">
+    <row r="87" spans="2:6" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B87" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="D87" s="10" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="87">
-      <c r="B87" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="D87" s="10" t="s">
+    <row r="88" spans="2:6" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B88" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="D88" s="10" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="88">
-      <c r="B88" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="D88" s="10" t="s">
+    <row r="89" spans="2:6" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B89" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="D89" s="10" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="89">
-      <c r="B89" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="D89" s="10" t="s">
+    <row r="90" spans="2:6" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B90" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="D90" s="10" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="90">
-      <c r="B90" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="D90" s="10" t="s">
+    <row r="91" spans="2:6" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B91" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="D91" s="10" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="91">
-      <c r="B91" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="D91" s="10" t="s">
+    <row r="92" spans="2:6" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B92" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="D92" s="10" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="92">
-      <c r="B92" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="D92" s="10" t="s">
+    <row r="93" spans="2:6" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B93" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="D93" s="10" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="93">
-      <c r="B93" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="D93" s="10" t="s">
+    <row r="94" spans="2:6" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B94" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="D94" s="10" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="94">
-      <c r="B94" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="D94" s="10" t="s">
+    <row r="95" spans="2:6" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B95" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="D95" s="10" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="95">
-      <c r="B95" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="D95" s="10" t="s">
+    <row r="96" spans="2:6" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B96" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="D96" s="10" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="96">
-      <c r="B96" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="D96" s="10" t="s">
+    <row r="97" spans="2:4" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B97" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="D97" s="10" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="97">
-      <c r="B97" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="D97" s="10" t="s">
+    <row r="98" spans="2:4" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B98" s="10" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="98">
-      <c r="B98" s="10" t="s">
+      <c r="C98" s="10" t="s">
         <v>103</v>
       </c>
-      <c r="C98" s="10" t="s">
+    </row>
+    <row r="99" spans="2:4" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B99" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="C99" s="10" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="99">
-      <c r="B99" s="10" t="s">
-        <v>103</v>
-      </c>
-      <c r="C99" s="10" t="s">
+    <row r="100" spans="2:4" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B100" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="C100" s="12" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="100">
-      <c r="B100" s="10" t="s">
-        <v>103</v>
-      </c>
-      <c r="C100" s="12" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="101">
+    <row r="101" spans="2:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B101" s="10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C101" s="10" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="102">
+    <row r="102" spans="2:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B102" s="10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C102" s="10" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink r:id="rId2" ref="F85"/>
+    <hyperlink ref="F85" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
   </hyperlinks>
-  <drawing r:id="rId3"/>
-  <legacyDrawing r:id="rId4"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>